--- a/Annexe-6-1-Tableau-Synthese-Epreuve-E4-BTS-SIO-2026.xlsx
+++ b/Annexe-6-1-Tableau-Synthese-Epreuve-E4-BTS-SIO-2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riyad\Desktop\site-portfolio.1-main RK react V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8897A882-DE92-44A5-A8E3-2A051D762332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1990E252-430E-45DE-AD0F-E42E4F7F5BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -155,10 +155,10 @@
     <t xml:space="preserve">Planification de la semaine , Git commit </t>
   </si>
   <si>
-    <t xml:space="preserve">Intégration de simulation </t>
-  </si>
-  <si>
     <t>NOM et prénom : KAYAT Riyad</t>
+  </si>
+  <si>
+    <t>Intégration de simulation Cisco Packet Tracer</t>
   </si>
 </sst>
 </file>
@@ -572,15 +572,24 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -604,15 +613,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -925,7 +925,7 @@
   <dimension ref="A1:AQ82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -938,56 +938,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="25"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:43" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="34" t="s">
+      <c r="A3" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="36"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="26"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="12" t="s">
         <v>8</v>
       </c>
@@ -999,10 +999,10 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="35" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1025,8 +1025,8 @@
       </c>
     </row>
     <row r="6" spans="1:43" s="2" customFormat="1" ht="325.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
-      <c r="B6" s="33"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="20" t="s">
         <v>26</v>
       </c>
@@ -1082,16 +1082,16 @@
       <c r="AQ6"/>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="28"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="31"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -1646,16 +1646,16 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="31"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="34"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="16"/>
@@ -2055,16 +2055,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="31"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="34"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2562,17 +2562,17 @@
     <row r="82" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A18:H18"/>
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B5:B6"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Annexe-6-1-Tableau-Synthese-Epreuve-E4-BTS-SIO-2026.xlsx
+++ b/Annexe-6-1-Tableau-Synthese-Epreuve-E4-BTS-SIO-2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riyad\Desktop\site-portfolio.1-main RK react V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1990E252-430E-45DE-AD0F-E42E4F7F5BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9A69C0-8D6D-4866-A377-CEE37928A57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -924,8 +924,8 @@
   </sheetPr>
   <dimension ref="A1:AQ82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="69" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
